--- a/RPIS/lista8/zad9.xlsx
+++ b/RPIS/lista8/zad9.xlsx
@@ -535,7 +535,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -719,7 +719,7 @@
       </c>
       <c r="B34">
         <f>B32/B33</f>
-        <v>0.26111111111111113</v>
+        <v>0.39166666666666666</v>
       </c>
     </row>
   </sheetData>
